--- a/data/2020/RACF_Fuel_factsheet_2020-01-29.xlsx
+++ b/data/2020/RACF_Fuel_factsheet_2020-01-29.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="master" r:id="rId2" sheetId="1" state="visible"/>
@@ -810,7 +810,7 @@
     <t>£71.38</t>
   </si>
   <si>
-    <t>£70.96</t>
+    <t>£70.92</t>
   </si>
   <si>
     <t>72.50</t>
@@ -1174,12 +1174,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YYYY\ HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="DD\-MM\-YYYY"/>
-    <numFmt numFmtId="168" formatCode="dd-mm-yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1299,11 +1298,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="22">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="22">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -5465,11 +5464,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="37431270"/>
-        <c:axId val="86811736"/>
+        <c:axId val="34724557"/>
+        <c:axId val="25069989"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37431270"/>
+        <c:axId val="34724557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5497,14 +5496,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86811736"/>
+        <c:crossAx val="25069989"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86811736"/>
+        <c:axId val="25069989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,7 +5540,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37431270"/>
+        <c:crossAx val="34724557"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8828,17 +8827,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="6354305"/>
-        <c:axId val="4402620"/>
+        <c:axId val="2381999"/>
+        <c:axId val="21891262"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="6354305"/>
+        <c:axId val="2381999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="DD\-MM\-YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8860,14 +8859,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4402620"/>
+        <c:crossAx val="21891262"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4402620"/>
+        <c:axId val="21891262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8902,7 +8901,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6354305"/>
+        <c:crossAx val="2381999"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8959,10 +8958,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0755896226415094"/>
-          <c:y val="0.072019923268493"/>
-          <c:w val="0.898270440251572"/>
-          <c:h val="0.759036144578313"/>
+          <c:x val="0.0755925940485082"/>
+          <c:y val="0.0720247711362413"/>
+          <c:w val="0.898227131569637"/>
+          <c:h val="0.758952611739365"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -12198,17 +12197,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35644525"/>
-        <c:axId val="2533900"/>
+        <c:axId val="58992009"/>
+        <c:axId val="57152822"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35644525"/>
+        <c:axId val="58992009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="DD\-MM\-YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12230,14 +12229,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2533900"/>
+        <c:crossAx val="57152822"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2533900"/>
+        <c:axId val="57152822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12272,7 +12271,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35644525"/>
+        <c:crossAx val="58992009"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12323,7 +12322,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
+      <xdr:colOff>40680</xdr:colOff>
       <xdr:row>259</xdr:row>
       <xdr:rowOff>57960</xdr:rowOff>
     </xdr:from>
@@ -12331,7 +12330,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>483840</xdr:colOff>
       <xdr:row>277</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12339,8 +12338,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10731600" y="48998520"/>
-        <a:ext cx="5755320" cy="3235320"/>
+        <a:off x="10731960" y="49012560"/>
+        <a:ext cx="5754960" cy="3234960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12364,9 +12363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12375,7 +12374,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="29520" y="28800"/>
-        <a:ext cx="8314560" cy="4855680"/>
+        <a:ext cx="8314200" cy="4855320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12399,9 +12398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12410,7 +12409,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="360"/>
-        <a:ext cx="9158040" cy="5348160"/>
+        <a:ext cx="9157680" cy="5347800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12431,7 +12430,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -13000,7 +12999,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -13614,13 +13613,13 @@
   <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="7.45703125" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="1" max="1" customWidth="true" hidden="false" style="4" width="11.6953125" collapsed="true" outlineLevel="0" bestFit="true"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="4" width="11.609375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="7.45703125" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="4" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
   </cols>
@@ -16419,7 +16418,7 @@
         <v>128.73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="255">
       <c r="A255" s="6" t="n">
         <v>43494.041666666664</v>
       </c>
@@ -16448,14 +16447,14 @@
   </sheetPr>
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="24.40625" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="1" max="1" customWidth="true" hidden="false" style="4" width="11.6953125" collapsed="true" outlineLevel="0" bestFit="true"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="4" width="11.609375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.40625" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="4" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
   </cols>
@@ -19254,7 +19253,7 @@
         <v>47.74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.8" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="255">
       <c r="A255" s="6" t="n">
         <v>43494.041666666664</v>
       </c>
@@ -19284,8 +19283,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L28" activeCellId="0" pane="topLeft" sqref="L28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L28" activeCellId="1" pane="topLeft" sqref="A:A L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -19312,7 +19311,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M28" activeCellId="0" pane="topLeft" sqref="M28"/>
+      <selection activeCell="M28" activeCellId="1" pane="topLeft" sqref="A:A M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>

--- a/data/2020/RACF_Fuel_factsheet_2020-01-29.xlsx
+++ b/data/2020/RACF_Fuel_factsheet_2020-01-29.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="master" r:id="rId2" sheetId="1" state="visible"/>
@@ -16,7 +16,7 @@
     <sheet name="oil.chart" r:id="rId7" sheetId="6" state="visible"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="pump_prices" vbProcedure="false">'pump.chart.data'!$A$1:$C$254</definedName>
+    <definedName function="false" hidden="false" name="pump_prices" vbProcedure="false">'pump.chart.data'!$A$1:$C$252</definedName>
   </definedNames>
   <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="376">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -747,7 +747,7 @@
     <t>UK ranking in EU by pre-tax diesel price</t>
   </si>
   <si>
-    <t>29 January 2020</t>
+    <t>29 januar 2020</t>
   </si>
   <si>
     <t>128.05p</t>
@@ -816,43 +816,34 @@
     <t>72.50</t>
   </si>
   <si>
-    <t>£65.52 (7 February 2019)</t>
-  </si>
-  <si>
-    <t>£70.69 (11 February 2019)</t>
-  </si>
-  <si>
-    <t>12 month high 135.54p (31 May 2019)</t>
-  </si>
-  <si>
-    <t>12 month low 128.53p (11 February 2019)</t>
-  </si>
-  <si>
-    <t>12 month high 130.67p (4 June 2019)</t>
-  </si>
-  <si>
-    <t>12 month low 119.27p (7 February 2019)</t>
-  </si>
-  <si>
-    <t>12 month high $74.76* 16 May 2019</t>
-  </si>
-  <si>
-    <t>12 month low $55.18* 7 August 2019</t>
-  </si>
-  <si>
-    <t>$59.37</t>
-  </si>
-  <si>
-    <t>£45.66</t>
-  </si>
-  <si>
-    <t>Down $2.86</t>
-  </si>
-  <si>
-    <t>Down $10.38</t>
-  </si>
-  <si>
-    <t>Down $2.08</t>
+    <t>£ (  )</t>
+  </si>
+  <si>
+    <t>12 month high p (  )</t>
+  </si>
+  <si>
+    <t>12 month low p (  )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 month high $*   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 month low $*   </t>
+  </si>
+  <si>
+    <t>$-10.00</t>
+  </si>
+  <si>
+    <t>£-11.00</t>
+  </si>
+  <si>
+    <t>Down $72.23</t>
+  </si>
+  <si>
+    <t>Down $79.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $</t>
   </si>
   <si>
     <t>Up £0.01</t>
@@ -861,16 +852,13 @@
     <t>Up £2.62</t>
   </si>
   <si>
-    <t>Up £8.23</t>
+    <t xml:space="preserve"> £</t>
   </si>
   <si>
     <t>Down £0.16</t>
   </si>
   <si>
     <t>Up £2.75</t>
-  </si>
-  <si>
-    <t>Up £3.72</t>
   </si>
   <si>
     <t>14th</t>
@@ -5464,11 +5452,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="34724557"/>
-        <c:axId val="25069989"/>
+        <c:axId val="75957915"/>
+        <c:axId val="64889910"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34724557"/>
+        <c:axId val="75957915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,14 +5484,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25069989"/>
+        <c:crossAx val="64889910"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25069989"/>
+        <c:axId val="64889910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,7 +5528,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34724557"/>
+        <c:crossAx val="75957915"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5581,7 +5569,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -5649,778 +5637,769 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'pump.chart.data'!$A$2:$A$258</c:f>
+              <c:f>'pump.chart.data'!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
-                  <c:v>29-01-2020</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28-01-2020</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27-01-2020</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-01-2020</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23-01-2020</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22-01-2020</c:v>
+                  <c:v>22/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21-01-2020</c:v>
+                  <c:v>21/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20-01-2020</c:v>
+                  <c:v>20/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17-01-2020</c:v>
+                  <c:v>17/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16-01-2020</c:v>
+                  <c:v>16/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-01-2020</c:v>
+                  <c:v>15/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14-01-2020</c:v>
+                  <c:v>14/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13-01-2020</c:v>
+                  <c:v>13/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-01-2020</c:v>
+                  <c:v>10/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09-01-2020</c:v>
+                  <c:v>09/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>08-01-2020</c:v>
+                  <c:v>08/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>07-01-2020</c:v>
+                  <c:v>07/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>06-01-2020</c:v>
+                  <c:v>06/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>03-01-2020</c:v>
+                  <c:v>03/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>02-01-2020</c:v>
+                  <c:v>02/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31-12-2019</c:v>
+                  <c:v>31/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30-12-2019</c:v>
+                  <c:v>30/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27-12-2019</c:v>
+                  <c:v>27/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24-12-2019</c:v>
+                  <c:v>24/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23-12-2019</c:v>
+                  <c:v>23/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20-12-2019</c:v>
+                  <c:v>20/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19-12-2019</c:v>
+                  <c:v>19/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18-12-2019</c:v>
+                  <c:v>18/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17-12-2019</c:v>
+                  <c:v>17/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16-12-2019</c:v>
+                  <c:v>16/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13-12-2019</c:v>
+                  <c:v>13/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12-12-2019</c:v>
+                  <c:v>12/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11-12-2019</c:v>
+                  <c:v>11/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10-12-2019</c:v>
+                  <c:v>10/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>09-12-2019</c:v>
+                  <c:v>09/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>06-12-2019</c:v>
+                  <c:v>06/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>05-12-2019</c:v>
+                  <c:v>05/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>04-12-2019</c:v>
+                  <c:v>04/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>03-12-2019</c:v>
+                  <c:v>03/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>02-12-2019</c:v>
+                  <c:v>02/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29-11-2019</c:v>
+                  <c:v>29/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28-11-2019</c:v>
+                  <c:v>28/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27-11-2019</c:v>
+                  <c:v>27/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26-11-2019</c:v>
+                  <c:v>26/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25-11-2019</c:v>
+                  <c:v>25/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22-11-2019</c:v>
+                  <c:v>22/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21-11-2019</c:v>
+                  <c:v>21/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20-11-2019</c:v>
+                  <c:v>20/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19-11-2019</c:v>
+                  <c:v>19/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18-11-2019</c:v>
+                  <c:v>18/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15-11-2019</c:v>
+                  <c:v>15/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14-11-2019</c:v>
+                  <c:v>14/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13-11-2019</c:v>
+                  <c:v>13/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12-11-2019</c:v>
+                  <c:v>12/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11-11-2019</c:v>
+                  <c:v>11/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>08-11-2019</c:v>
+                  <c:v>08/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>07-11-2019</c:v>
+                  <c:v>07/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>06-11-2019</c:v>
+                  <c:v>06/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>05-11-2019</c:v>
+                  <c:v>05/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>04-11-2019</c:v>
+                  <c:v>04/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>01-11-2019</c:v>
+                  <c:v>01/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31-10-2019</c:v>
+                  <c:v>31/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30-10-2019</c:v>
+                  <c:v>30/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>29-10-2019</c:v>
+                  <c:v>29/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28-10-2019</c:v>
+                  <c:v>28/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25-10-2019</c:v>
+                  <c:v>25/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24-10-2019</c:v>
+                  <c:v>24/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23-10-2019</c:v>
+                  <c:v>23/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22-10-2019</c:v>
+                  <c:v>22/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21-10-2019</c:v>
+                  <c:v>21/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18-10-2019</c:v>
+                  <c:v>18/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>17-10-2019</c:v>
+                  <c:v>17/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16-10-2019</c:v>
+                  <c:v>16/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15-10-2019</c:v>
+                  <c:v>15/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>14-10-2019</c:v>
+                  <c:v>14/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11-10-2019</c:v>
+                  <c:v>11/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10-10-2019</c:v>
+                  <c:v>10/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>09-10-2019</c:v>
+                  <c:v>09/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>08-10-2019</c:v>
+                  <c:v>08/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>07-10-2019</c:v>
+                  <c:v>07/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>04-10-2019</c:v>
+                  <c:v>04/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>03-10-2019</c:v>
+                  <c:v>03/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>02-10-2019</c:v>
+                  <c:v>02/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>01-10-2019</c:v>
+                  <c:v>01/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30-09-2019</c:v>
+                  <c:v>30/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>27-09-2019</c:v>
+                  <c:v>27/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26-09-2019</c:v>
+                  <c:v>26/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>25-09-2019</c:v>
+                  <c:v>25/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24-09-2019</c:v>
+                  <c:v>24/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23-09-2019</c:v>
+                  <c:v>23/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20-09-2019</c:v>
+                  <c:v>20/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19-09-2019</c:v>
+                  <c:v>19/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18-09-2019</c:v>
+                  <c:v>18/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17-09-2019</c:v>
+                  <c:v>17/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16-09-2019</c:v>
+                  <c:v>16/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>13-09-2019</c:v>
+                  <c:v>13/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12-09-2019</c:v>
+                  <c:v>12/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11-09-2019</c:v>
+                  <c:v>11/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10-09-2019</c:v>
+                  <c:v>10/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>09-09-2019</c:v>
+                  <c:v>09/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>06-09-2019</c:v>
+                  <c:v>06/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>05-09-2019</c:v>
+                  <c:v>05/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>04-09-2019</c:v>
+                  <c:v>04/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>03-09-2019</c:v>
+                  <c:v>03/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>02-09-2019</c:v>
+                  <c:v>02/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>30-08-2019</c:v>
+                  <c:v>30/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>29-08-2019</c:v>
+                  <c:v>29/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>28-08-2019</c:v>
+                  <c:v>28/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>27-08-2019</c:v>
+                  <c:v>27/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>23-08-2019</c:v>
+                  <c:v>23/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22-08-2019</c:v>
+                  <c:v>22/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>21-08-2019</c:v>
+                  <c:v>21/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>20-08-2019</c:v>
+                  <c:v>20/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19-08-2019</c:v>
+                  <c:v>19/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>16-08-2019</c:v>
+                  <c:v>16/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>15-08-2019</c:v>
+                  <c:v>15/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14-08-2019</c:v>
+                  <c:v>14/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13-08-2019</c:v>
+                  <c:v>13/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>12-08-2019</c:v>
+                  <c:v>12/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>09-08-2019</c:v>
+                  <c:v>09/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>08-08-2019</c:v>
+                  <c:v>08/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>07-08-2019</c:v>
+                  <c:v>07/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>06-08-2019</c:v>
+                  <c:v>06/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>05-08-2019</c:v>
+                  <c:v>05/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>02-08-2019</c:v>
+                  <c:v>02/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>01-08-2019</c:v>
+                  <c:v>01/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>31-07-2019</c:v>
+                  <c:v>31/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>30-07-2019</c:v>
+                  <c:v>30/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>29-07-2019</c:v>
+                  <c:v>29/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>26-07-2019</c:v>
+                  <c:v>26/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>25-07-2019</c:v>
+                  <c:v>25/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>24-07-2019</c:v>
+                  <c:v>24/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>23-07-2019</c:v>
+                  <c:v>23/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>22-07-2019</c:v>
+                  <c:v>22/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>19-07-2019</c:v>
+                  <c:v>19/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>18-07-2019</c:v>
+                  <c:v>18/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>17-07-2019</c:v>
+                  <c:v>17/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16-07-2019</c:v>
+                  <c:v>16/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>15-07-2019</c:v>
+                  <c:v>15/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12-07-2019</c:v>
+                  <c:v>12/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>11-07-2019</c:v>
+                  <c:v>11/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10-07-2019</c:v>
+                  <c:v>10/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>09-07-2019</c:v>
+                  <c:v>09/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>08-07-2019</c:v>
+                  <c:v>08/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>05-07-2019</c:v>
+                  <c:v>05/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>04-07-2019</c:v>
+                  <c:v>04/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>03-07-2019</c:v>
+                  <c:v>03/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>02-07-2019</c:v>
+                  <c:v>02/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>01-07-2019</c:v>
+                  <c:v>01/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28-06-2019</c:v>
+                  <c:v>28/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27-06-2019</c:v>
+                  <c:v>27/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>26-06-2019</c:v>
+                  <c:v>26/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>25-06-2019</c:v>
+                  <c:v>25/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>24-06-2019</c:v>
+                  <c:v>24/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>21-06-2019</c:v>
+                  <c:v>21/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>20-06-2019</c:v>
+                  <c:v>20/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>19-06-2019</c:v>
+                  <c:v>19/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>18-06-2019</c:v>
+                  <c:v>18/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>17-06-2019</c:v>
+                  <c:v>17/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>14-06-2019</c:v>
+                  <c:v>14/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>13-06-2019</c:v>
+                  <c:v>13/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>12-06-2019</c:v>
+                  <c:v>12/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>11-06-2019</c:v>
+                  <c:v>11/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10-06-2019</c:v>
+                  <c:v>10/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>07-06-2019</c:v>
+                  <c:v>07/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>06-06-2019</c:v>
+                  <c:v>06/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>05-06-2019</c:v>
+                  <c:v>05/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>04-06-2019</c:v>
+                  <c:v>04/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>03-06-2019</c:v>
+                  <c:v>03/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>31-05-2019</c:v>
+                  <c:v>31/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>30-05-2019</c:v>
+                  <c:v>30/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>29-05-2019</c:v>
+                  <c:v>29/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>28-05-2019</c:v>
+                  <c:v>28/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>24-05-2019</c:v>
+                  <c:v>24/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>23-05-2019</c:v>
+                  <c:v>23/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>22-05-2019</c:v>
+                  <c:v>22/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>21-05-2019</c:v>
+                  <c:v>21/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>20-05-2019</c:v>
+                  <c:v>20/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>17-05-2019</c:v>
+                  <c:v>17/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>16-05-2019</c:v>
+                  <c:v>16/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>15-05-2019</c:v>
+                  <c:v>15/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>14-05-2019</c:v>
+                  <c:v>14/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>13-05-2019</c:v>
+                  <c:v>13/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10-05-2019</c:v>
+                  <c:v>10/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>09-05-2019</c:v>
+                  <c:v>09/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>08-05-2019</c:v>
+                  <c:v>08/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>07-05-2019</c:v>
+                  <c:v>07/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>03-05-2019</c:v>
+                  <c:v>03/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>02-05-2019</c:v>
+                  <c:v>02/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>01-05-2019</c:v>
+                  <c:v>01/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>30-04-2019</c:v>
+                  <c:v>30/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>29-04-2019</c:v>
+                  <c:v>29/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>26-04-2019</c:v>
+                  <c:v>26/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>25-04-2019</c:v>
+                  <c:v>25/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>24-04-2019</c:v>
+                  <c:v>24/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>23-04-2019</c:v>
+                  <c:v>23/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>18-04-2019</c:v>
+                  <c:v>18/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>17-04-2019</c:v>
+                  <c:v>17/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>16-04-2019</c:v>
+                  <c:v>16/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>15-04-2019</c:v>
+                  <c:v>15/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>12-04-2019</c:v>
+                  <c:v>12/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>11-04-2019</c:v>
+                  <c:v>11/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>10-04-2019</c:v>
+                  <c:v>10/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>09-04-2019</c:v>
+                  <c:v>09/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>08-04-2019</c:v>
+                  <c:v>08/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>05-04-2019</c:v>
+                  <c:v>05/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>04-04-2019</c:v>
+                  <c:v>04/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>03-04-2019</c:v>
+                  <c:v>03/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>02-04-2019</c:v>
+                  <c:v>02/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>01-04-2019</c:v>
+                  <c:v>01/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>29-03-2019</c:v>
+                  <c:v>29/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>28-03-2019</c:v>
+                  <c:v>28/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>27-03-2019</c:v>
+                  <c:v>27/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>26-03-2019</c:v>
+                  <c:v>26/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>25-03-2019</c:v>
+                  <c:v>25/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>22-03-2019</c:v>
+                  <c:v>22/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>21-03-2019</c:v>
+                  <c:v>21/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>20-03-2019</c:v>
+                  <c:v>20/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>19-03-2019</c:v>
+                  <c:v>19/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>18-03-2019</c:v>
+                  <c:v>18/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>15-03-2019</c:v>
+                  <c:v>15/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>14-03-2019</c:v>
+                  <c:v>14/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>13-03-2019</c:v>
+                  <c:v>13/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>12-03-2019</c:v>
+                  <c:v>12/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11-03-2019</c:v>
+                  <c:v>11/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>08-03-2019</c:v>
+                  <c:v>08/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>07-03-2019</c:v>
+                  <c:v>07/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>06-03-2019</c:v>
+                  <c:v>06/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>05-03-2019</c:v>
+                  <c:v>05/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>04-03-2019</c:v>
+                  <c:v>04/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>01-03-2019</c:v>
+                  <c:v>01/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>28-02-2019</c:v>
+                  <c:v>28/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>27-02-2019</c:v>
+                  <c:v>27/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>26-02-2019</c:v>
+                  <c:v>26/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>25-02-2019</c:v>
+                  <c:v>25/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>22-02-2019</c:v>
+                  <c:v>22/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>21-02-2019</c:v>
+                  <c:v>21/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>20-02-2019</c:v>
+                  <c:v>20/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>19-02-2019</c:v>
+                  <c:v>19/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>18-02-2019</c:v>
+                  <c:v>18/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>15-02-2019</c:v>
+                  <c:v>15/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>14-02-2019</c:v>
+                  <c:v>14/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>13-02-2019</c:v>
+                  <c:v>13/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>12-02-2019</c:v>
+                  <c:v>12/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>11-02-2019</c:v>
+                  <c:v>11/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>08-02-2019</c:v>
+                  <c:v>08/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>07-02-2019</c:v>
+                  <c:v>07/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>06-02-2019</c:v>
+                  <c:v>06/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>05-02-2019</c:v>
+                  <c:v>05/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>04-02-2019</c:v>
+                  <c:v>04/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>01-02-2019</c:v>
+                  <c:v>01/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>31-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>29-01-2019</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -6428,10 +6407,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pump.chart.data'!$B$2:$B$258</c:f>
+              <c:f>'pump.chart.data'!$B$2:$B$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>128.05</c:v>
                 </c:pt>
@@ -7184,24 +7163,6 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>119.6</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>119.65</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>119.65</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>119.82</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7260,778 +7221,769 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'pump.chart.data'!$A$2:$A$258</c:f>
+              <c:f>'pump.chart.data'!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
-                  <c:v>29-01-2020</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28-01-2020</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27-01-2020</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-01-2020</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23-01-2020</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22-01-2020</c:v>
+                  <c:v>22/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21-01-2020</c:v>
+                  <c:v>21/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20-01-2020</c:v>
+                  <c:v>20/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17-01-2020</c:v>
+                  <c:v>17/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16-01-2020</c:v>
+                  <c:v>16/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-01-2020</c:v>
+                  <c:v>15/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14-01-2020</c:v>
+                  <c:v>14/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13-01-2020</c:v>
+                  <c:v>13/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-01-2020</c:v>
+                  <c:v>10/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09-01-2020</c:v>
+                  <c:v>09/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>08-01-2020</c:v>
+                  <c:v>08/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>07-01-2020</c:v>
+                  <c:v>07/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>06-01-2020</c:v>
+                  <c:v>06/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>03-01-2020</c:v>
+                  <c:v>03/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>02-01-2020</c:v>
+                  <c:v>02/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31-12-2019</c:v>
+                  <c:v>31/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30-12-2019</c:v>
+                  <c:v>30/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27-12-2019</c:v>
+                  <c:v>27/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24-12-2019</c:v>
+                  <c:v>24/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23-12-2019</c:v>
+                  <c:v>23/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20-12-2019</c:v>
+                  <c:v>20/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19-12-2019</c:v>
+                  <c:v>19/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18-12-2019</c:v>
+                  <c:v>18/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17-12-2019</c:v>
+                  <c:v>17/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16-12-2019</c:v>
+                  <c:v>16/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13-12-2019</c:v>
+                  <c:v>13/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12-12-2019</c:v>
+                  <c:v>12/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11-12-2019</c:v>
+                  <c:v>11/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10-12-2019</c:v>
+                  <c:v>10/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>09-12-2019</c:v>
+                  <c:v>09/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>06-12-2019</c:v>
+                  <c:v>06/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>05-12-2019</c:v>
+                  <c:v>05/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>04-12-2019</c:v>
+                  <c:v>04/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>03-12-2019</c:v>
+                  <c:v>03/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>02-12-2019</c:v>
+                  <c:v>02/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29-11-2019</c:v>
+                  <c:v>29/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28-11-2019</c:v>
+                  <c:v>28/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27-11-2019</c:v>
+                  <c:v>27/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26-11-2019</c:v>
+                  <c:v>26/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25-11-2019</c:v>
+                  <c:v>25/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22-11-2019</c:v>
+                  <c:v>22/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21-11-2019</c:v>
+                  <c:v>21/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20-11-2019</c:v>
+                  <c:v>20/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19-11-2019</c:v>
+                  <c:v>19/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18-11-2019</c:v>
+                  <c:v>18/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15-11-2019</c:v>
+                  <c:v>15/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14-11-2019</c:v>
+                  <c:v>14/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13-11-2019</c:v>
+                  <c:v>13/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12-11-2019</c:v>
+                  <c:v>12/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11-11-2019</c:v>
+                  <c:v>11/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>08-11-2019</c:v>
+                  <c:v>08/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>07-11-2019</c:v>
+                  <c:v>07/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>06-11-2019</c:v>
+                  <c:v>06/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>05-11-2019</c:v>
+                  <c:v>05/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>04-11-2019</c:v>
+                  <c:v>04/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>01-11-2019</c:v>
+                  <c:v>01/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31-10-2019</c:v>
+                  <c:v>31/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30-10-2019</c:v>
+                  <c:v>30/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>29-10-2019</c:v>
+                  <c:v>29/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28-10-2019</c:v>
+                  <c:v>28/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25-10-2019</c:v>
+                  <c:v>25/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24-10-2019</c:v>
+                  <c:v>24/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23-10-2019</c:v>
+                  <c:v>23/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22-10-2019</c:v>
+                  <c:v>22/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21-10-2019</c:v>
+                  <c:v>21/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18-10-2019</c:v>
+                  <c:v>18/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>17-10-2019</c:v>
+                  <c:v>17/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16-10-2019</c:v>
+                  <c:v>16/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15-10-2019</c:v>
+                  <c:v>15/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>14-10-2019</c:v>
+                  <c:v>14/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11-10-2019</c:v>
+                  <c:v>11/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10-10-2019</c:v>
+                  <c:v>10/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>09-10-2019</c:v>
+                  <c:v>09/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>08-10-2019</c:v>
+                  <c:v>08/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>07-10-2019</c:v>
+                  <c:v>07/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>04-10-2019</c:v>
+                  <c:v>04/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>03-10-2019</c:v>
+                  <c:v>03/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>02-10-2019</c:v>
+                  <c:v>02/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>01-10-2019</c:v>
+                  <c:v>01/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30-09-2019</c:v>
+                  <c:v>30/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>27-09-2019</c:v>
+                  <c:v>27/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26-09-2019</c:v>
+                  <c:v>26/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>25-09-2019</c:v>
+                  <c:v>25/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24-09-2019</c:v>
+                  <c:v>24/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23-09-2019</c:v>
+                  <c:v>23/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20-09-2019</c:v>
+                  <c:v>20/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19-09-2019</c:v>
+                  <c:v>19/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18-09-2019</c:v>
+                  <c:v>18/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17-09-2019</c:v>
+                  <c:v>17/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16-09-2019</c:v>
+                  <c:v>16/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>13-09-2019</c:v>
+                  <c:v>13/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12-09-2019</c:v>
+                  <c:v>12/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11-09-2019</c:v>
+                  <c:v>11/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10-09-2019</c:v>
+                  <c:v>10/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>09-09-2019</c:v>
+                  <c:v>09/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>06-09-2019</c:v>
+                  <c:v>06/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>05-09-2019</c:v>
+                  <c:v>05/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>04-09-2019</c:v>
+                  <c:v>04/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>03-09-2019</c:v>
+                  <c:v>03/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>02-09-2019</c:v>
+                  <c:v>02/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>30-08-2019</c:v>
+                  <c:v>30/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>29-08-2019</c:v>
+                  <c:v>29/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>28-08-2019</c:v>
+                  <c:v>28/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>27-08-2019</c:v>
+                  <c:v>27/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>23-08-2019</c:v>
+                  <c:v>23/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22-08-2019</c:v>
+                  <c:v>22/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>21-08-2019</c:v>
+                  <c:v>21/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>20-08-2019</c:v>
+                  <c:v>20/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19-08-2019</c:v>
+                  <c:v>19/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>16-08-2019</c:v>
+                  <c:v>16/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>15-08-2019</c:v>
+                  <c:v>15/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14-08-2019</c:v>
+                  <c:v>14/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13-08-2019</c:v>
+                  <c:v>13/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>12-08-2019</c:v>
+                  <c:v>12/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>09-08-2019</c:v>
+                  <c:v>09/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>08-08-2019</c:v>
+                  <c:v>08/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>07-08-2019</c:v>
+                  <c:v>07/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>06-08-2019</c:v>
+                  <c:v>06/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>05-08-2019</c:v>
+                  <c:v>05/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>02-08-2019</c:v>
+                  <c:v>02/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>01-08-2019</c:v>
+                  <c:v>01/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>31-07-2019</c:v>
+                  <c:v>31/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>30-07-2019</c:v>
+                  <c:v>30/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>29-07-2019</c:v>
+                  <c:v>29/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>26-07-2019</c:v>
+                  <c:v>26/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>25-07-2019</c:v>
+                  <c:v>25/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>24-07-2019</c:v>
+                  <c:v>24/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>23-07-2019</c:v>
+                  <c:v>23/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>22-07-2019</c:v>
+                  <c:v>22/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>19-07-2019</c:v>
+                  <c:v>19/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>18-07-2019</c:v>
+                  <c:v>18/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>17-07-2019</c:v>
+                  <c:v>17/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16-07-2019</c:v>
+                  <c:v>16/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>15-07-2019</c:v>
+                  <c:v>15/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12-07-2019</c:v>
+                  <c:v>12/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>11-07-2019</c:v>
+                  <c:v>11/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10-07-2019</c:v>
+                  <c:v>10/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>09-07-2019</c:v>
+                  <c:v>09/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>08-07-2019</c:v>
+                  <c:v>08/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>05-07-2019</c:v>
+                  <c:v>05/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>04-07-2019</c:v>
+                  <c:v>04/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>03-07-2019</c:v>
+                  <c:v>03/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>02-07-2019</c:v>
+                  <c:v>02/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>01-07-2019</c:v>
+                  <c:v>01/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28-06-2019</c:v>
+                  <c:v>28/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27-06-2019</c:v>
+                  <c:v>27/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>26-06-2019</c:v>
+                  <c:v>26/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>25-06-2019</c:v>
+                  <c:v>25/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>24-06-2019</c:v>
+                  <c:v>24/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>21-06-2019</c:v>
+                  <c:v>21/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>20-06-2019</c:v>
+                  <c:v>20/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>19-06-2019</c:v>
+                  <c:v>19/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>18-06-2019</c:v>
+                  <c:v>18/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>17-06-2019</c:v>
+                  <c:v>17/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>14-06-2019</c:v>
+                  <c:v>14/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>13-06-2019</c:v>
+                  <c:v>13/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>12-06-2019</c:v>
+                  <c:v>12/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>11-06-2019</c:v>
+                  <c:v>11/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10-06-2019</c:v>
+                  <c:v>10/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>07-06-2019</c:v>
+                  <c:v>07/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>06-06-2019</c:v>
+                  <c:v>06/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>05-06-2019</c:v>
+                  <c:v>05/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>04-06-2019</c:v>
+                  <c:v>04/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>03-06-2019</c:v>
+                  <c:v>03/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>31-05-2019</c:v>
+                  <c:v>31/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>30-05-2019</c:v>
+                  <c:v>30/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>29-05-2019</c:v>
+                  <c:v>29/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>28-05-2019</c:v>
+                  <c:v>28/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>24-05-2019</c:v>
+                  <c:v>24/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>23-05-2019</c:v>
+                  <c:v>23/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>22-05-2019</c:v>
+                  <c:v>22/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>21-05-2019</c:v>
+                  <c:v>21/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>20-05-2019</c:v>
+                  <c:v>20/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>17-05-2019</c:v>
+                  <c:v>17/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>16-05-2019</c:v>
+                  <c:v>16/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>15-05-2019</c:v>
+                  <c:v>15/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>14-05-2019</c:v>
+                  <c:v>14/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>13-05-2019</c:v>
+                  <c:v>13/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10-05-2019</c:v>
+                  <c:v>10/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>09-05-2019</c:v>
+                  <c:v>09/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>08-05-2019</c:v>
+                  <c:v>08/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>07-05-2019</c:v>
+                  <c:v>07/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>03-05-2019</c:v>
+                  <c:v>03/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>02-05-2019</c:v>
+                  <c:v>02/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>01-05-2019</c:v>
+                  <c:v>01/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>30-04-2019</c:v>
+                  <c:v>30/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>29-04-2019</c:v>
+                  <c:v>29/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>26-04-2019</c:v>
+                  <c:v>26/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>25-04-2019</c:v>
+                  <c:v>25/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>24-04-2019</c:v>
+                  <c:v>24/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>23-04-2019</c:v>
+                  <c:v>23/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>18-04-2019</c:v>
+                  <c:v>18/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>17-04-2019</c:v>
+                  <c:v>17/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>16-04-2019</c:v>
+                  <c:v>16/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>15-04-2019</c:v>
+                  <c:v>15/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>12-04-2019</c:v>
+                  <c:v>12/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>11-04-2019</c:v>
+                  <c:v>11/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>10-04-2019</c:v>
+                  <c:v>10/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>09-04-2019</c:v>
+                  <c:v>09/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>08-04-2019</c:v>
+                  <c:v>08/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>05-04-2019</c:v>
+                  <c:v>05/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>04-04-2019</c:v>
+                  <c:v>04/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>03-04-2019</c:v>
+                  <c:v>03/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>02-04-2019</c:v>
+                  <c:v>02/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>01-04-2019</c:v>
+                  <c:v>01/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>29-03-2019</c:v>
+                  <c:v>29/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>28-03-2019</c:v>
+                  <c:v>28/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>27-03-2019</c:v>
+                  <c:v>27/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>26-03-2019</c:v>
+                  <c:v>26/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>25-03-2019</c:v>
+                  <c:v>25/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>22-03-2019</c:v>
+                  <c:v>22/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>21-03-2019</c:v>
+                  <c:v>21/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>20-03-2019</c:v>
+                  <c:v>20/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>19-03-2019</c:v>
+                  <c:v>19/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>18-03-2019</c:v>
+                  <c:v>18/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>15-03-2019</c:v>
+                  <c:v>15/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>14-03-2019</c:v>
+                  <c:v>14/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>13-03-2019</c:v>
+                  <c:v>13/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>12-03-2019</c:v>
+                  <c:v>12/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11-03-2019</c:v>
+                  <c:v>11/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>08-03-2019</c:v>
+                  <c:v>08/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>07-03-2019</c:v>
+                  <c:v>07/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>06-03-2019</c:v>
+                  <c:v>06/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>05-03-2019</c:v>
+                  <c:v>05/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>04-03-2019</c:v>
+                  <c:v>04/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>01-03-2019</c:v>
+                  <c:v>01/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>28-02-2019</c:v>
+                  <c:v>28/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>27-02-2019</c:v>
+                  <c:v>27/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>26-02-2019</c:v>
+                  <c:v>26/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>25-02-2019</c:v>
+                  <c:v>25/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>22-02-2019</c:v>
+                  <c:v>22/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>21-02-2019</c:v>
+                  <c:v>21/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>20-02-2019</c:v>
+                  <c:v>20/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>19-02-2019</c:v>
+                  <c:v>19/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>18-02-2019</c:v>
+                  <c:v>18/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>15-02-2019</c:v>
+                  <c:v>15/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>14-02-2019</c:v>
+                  <c:v>14/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>13-02-2019</c:v>
+                  <c:v>13/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>12-02-2019</c:v>
+                  <c:v>12/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>11-02-2019</c:v>
+                  <c:v>11/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>08-02-2019</c:v>
+                  <c:v>08/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>07-02-2019</c:v>
+                  <c:v>07/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>06-02-2019</c:v>
+                  <c:v>06/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>05-02-2019</c:v>
+                  <c:v>05/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>04-02-2019</c:v>
+                  <c:v>04/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>01-02-2019</c:v>
+                  <c:v>01/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>31-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>29-01-2019</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -8039,10 +7991,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pump.chart.data'!$C$2:$C$258</c:f>
+              <c:f>'pump.chart.data'!$C$2:$C$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>132.53</c:v>
                 </c:pt>
@@ -8795,24 +8747,6 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>128.73</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>128.72</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>128.73</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>128.81</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8827,11 +8761,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="2381999"/>
-        <c:axId val="21891262"/>
+        <c:axId val="95364165"/>
+        <c:axId val="10598239"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2381999"/>
+        <c:axId val="95364165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8859,14 +8793,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21891262"/>
+        <c:crossAx val="10598239"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="21891262"/>
+        <c:axId val="10598239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8901,7 +8835,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2381999"/>
+        <c:crossAx val="95364165"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8940,7 +8874,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -8958,10 +8892,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0755925940485082"/>
-          <c:y val="0.0720247711362413"/>
-          <c:w val="0.898227131569637"/>
-          <c:h val="0.758952611739365"/>
+          <c:x val="0.0755955656891265"/>
+          <c:y val="0.0720296196566813"/>
+          <c:w val="0.898183819482664"/>
+          <c:h val="0.758869067653989"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9019,778 +8953,769 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'oil.chart.data'!$A$2:$A$258</c:f>
+              <c:f>'oil.chart.data'!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
-                  <c:v>29-01-2020</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28-01-2020</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27-01-2020</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-01-2020</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23-01-2020</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22-01-2020</c:v>
+                  <c:v>22/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21-01-2020</c:v>
+                  <c:v>21/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20-01-2020</c:v>
+                  <c:v>20/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17-01-2020</c:v>
+                  <c:v>17/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16-01-2020</c:v>
+                  <c:v>16/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-01-2020</c:v>
+                  <c:v>15/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14-01-2020</c:v>
+                  <c:v>14/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13-01-2020</c:v>
+                  <c:v>13/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-01-2020</c:v>
+                  <c:v>10/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09-01-2020</c:v>
+                  <c:v>09/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>08-01-2020</c:v>
+                  <c:v>08/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>07-01-2020</c:v>
+                  <c:v>07/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>06-01-2020</c:v>
+                  <c:v>06/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>03-01-2020</c:v>
+                  <c:v>03/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>02-01-2020</c:v>
+                  <c:v>02/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31-12-2019</c:v>
+                  <c:v>31/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30-12-2019</c:v>
+                  <c:v>30/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27-12-2019</c:v>
+                  <c:v>27/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24-12-2019</c:v>
+                  <c:v>24/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23-12-2019</c:v>
+                  <c:v>23/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20-12-2019</c:v>
+                  <c:v>20/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19-12-2019</c:v>
+                  <c:v>19/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18-12-2019</c:v>
+                  <c:v>18/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17-12-2019</c:v>
+                  <c:v>17/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16-12-2019</c:v>
+                  <c:v>16/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13-12-2019</c:v>
+                  <c:v>13/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12-12-2019</c:v>
+                  <c:v>12/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11-12-2019</c:v>
+                  <c:v>11/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10-12-2019</c:v>
+                  <c:v>10/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>09-12-2019</c:v>
+                  <c:v>09/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>06-12-2019</c:v>
+                  <c:v>06/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>05-12-2019</c:v>
+                  <c:v>05/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>04-12-2019</c:v>
+                  <c:v>04/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>03-12-2019</c:v>
+                  <c:v>03/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>02-12-2019</c:v>
+                  <c:v>02/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29-11-2019</c:v>
+                  <c:v>29/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28-11-2019</c:v>
+                  <c:v>28/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27-11-2019</c:v>
+                  <c:v>27/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26-11-2019</c:v>
+                  <c:v>26/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25-11-2019</c:v>
+                  <c:v>25/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22-11-2019</c:v>
+                  <c:v>22/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21-11-2019</c:v>
+                  <c:v>21/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20-11-2019</c:v>
+                  <c:v>20/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19-11-2019</c:v>
+                  <c:v>19/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18-11-2019</c:v>
+                  <c:v>18/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15-11-2019</c:v>
+                  <c:v>15/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14-11-2019</c:v>
+                  <c:v>14/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13-11-2019</c:v>
+                  <c:v>13/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12-11-2019</c:v>
+                  <c:v>12/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11-11-2019</c:v>
+                  <c:v>11/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>08-11-2019</c:v>
+                  <c:v>08/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>07-11-2019</c:v>
+                  <c:v>07/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>06-11-2019</c:v>
+                  <c:v>06/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>05-11-2019</c:v>
+                  <c:v>05/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>04-11-2019</c:v>
+                  <c:v>04/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>01-11-2019</c:v>
+                  <c:v>01/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31-10-2019</c:v>
+                  <c:v>31/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30-10-2019</c:v>
+                  <c:v>30/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>29-10-2019</c:v>
+                  <c:v>29/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28-10-2019</c:v>
+                  <c:v>28/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25-10-2019</c:v>
+                  <c:v>25/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24-10-2019</c:v>
+                  <c:v>24/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23-10-2019</c:v>
+                  <c:v>23/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22-10-2019</c:v>
+                  <c:v>22/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21-10-2019</c:v>
+                  <c:v>21/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18-10-2019</c:v>
+                  <c:v>18/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>17-10-2019</c:v>
+                  <c:v>17/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16-10-2019</c:v>
+                  <c:v>16/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15-10-2019</c:v>
+                  <c:v>15/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>14-10-2019</c:v>
+                  <c:v>14/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11-10-2019</c:v>
+                  <c:v>11/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10-10-2019</c:v>
+                  <c:v>10/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>09-10-2019</c:v>
+                  <c:v>09/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>08-10-2019</c:v>
+                  <c:v>08/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>07-10-2019</c:v>
+                  <c:v>07/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>04-10-2019</c:v>
+                  <c:v>04/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>03-10-2019</c:v>
+                  <c:v>03/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>02-10-2019</c:v>
+                  <c:v>02/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>01-10-2019</c:v>
+                  <c:v>01/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30-09-2019</c:v>
+                  <c:v>30/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>27-09-2019</c:v>
+                  <c:v>27/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26-09-2019</c:v>
+                  <c:v>26/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>25-09-2019</c:v>
+                  <c:v>25/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24-09-2019</c:v>
+                  <c:v>24/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23-09-2019</c:v>
+                  <c:v>23/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20-09-2019</c:v>
+                  <c:v>20/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19-09-2019</c:v>
+                  <c:v>19/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18-09-2019</c:v>
+                  <c:v>18/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17-09-2019</c:v>
+                  <c:v>17/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16-09-2019</c:v>
+                  <c:v>16/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>13-09-2019</c:v>
+                  <c:v>13/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12-09-2019</c:v>
+                  <c:v>12/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11-09-2019</c:v>
+                  <c:v>11/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10-09-2019</c:v>
+                  <c:v>10/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>09-09-2019</c:v>
+                  <c:v>09/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>06-09-2019</c:v>
+                  <c:v>06/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>05-09-2019</c:v>
+                  <c:v>05/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>04-09-2019</c:v>
+                  <c:v>04/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>03-09-2019</c:v>
+                  <c:v>03/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>02-09-2019</c:v>
+                  <c:v>02/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>30-08-2019</c:v>
+                  <c:v>30/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>29-08-2019</c:v>
+                  <c:v>29/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>28-08-2019</c:v>
+                  <c:v>28/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>27-08-2019</c:v>
+                  <c:v>27/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>23-08-2019</c:v>
+                  <c:v>23/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22-08-2019</c:v>
+                  <c:v>22/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>21-08-2019</c:v>
+                  <c:v>21/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>20-08-2019</c:v>
+                  <c:v>20/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19-08-2019</c:v>
+                  <c:v>19/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>16-08-2019</c:v>
+                  <c:v>16/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>15-08-2019</c:v>
+                  <c:v>15/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14-08-2019</c:v>
+                  <c:v>14/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13-08-2019</c:v>
+                  <c:v>13/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>12-08-2019</c:v>
+                  <c:v>12/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>09-08-2019</c:v>
+                  <c:v>09/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>08-08-2019</c:v>
+                  <c:v>08/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>07-08-2019</c:v>
+                  <c:v>07/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>06-08-2019</c:v>
+                  <c:v>06/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>05-08-2019</c:v>
+                  <c:v>05/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>02-08-2019</c:v>
+                  <c:v>02/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>01-08-2019</c:v>
+                  <c:v>01/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>31-07-2019</c:v>
+                  <c:v>31/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>30-07-2019</c:v>
+                  <c:v>30/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>29-07-2019</c:v>
+                  <c:v>29/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>26-07-2019</c:v>
+                  <c:v>26/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>25-07-2019</c:v>
+                  <c:v>25/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>24-07-2019</c:v>
+                  <c:v>24/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>23-07-2019</c:v>
+                  <c:v>23/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>22-07-2019</c:v>
+                  <c:v>22/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>19-07-2019</c:v>
+                  <c:v>19/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>18-07-2019</c:v>
+                  <c:v>18/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>17-07-2019</c:v>
+                  <c:v>17/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16-07-2019</c:v>
+                  <c:v>16/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>15-07-2019</c:v>
+                  <c:v>15/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12-07-2019</c:v>
+                  <c:v>12/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>11-07-2019</c:v>
+                  <c:v>11/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10-07-2019</c:v>
+                  <c:v>10/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>09-07-2019</c:v>
+                  <c:v>09/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>08-07-2019</c:v>
+                  <c:v>08/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>05-07-2019</c:v>
+                  <c:v>05/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>04-07-2019</c:v>
+                  <c:v>04/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>03-07-2019</c:v>
+                  <c:v>03/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>02-07-2019</c:v>
+                  <c:v>02/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>01-07-2019</c:v>
+                  <c:v>01/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28-06-2019</c:v>
+                  <c:v>28/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27-06-2019</c:v>
+                  <c:v>27/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>26-06-2019</c:v>
+                  <c:v>26/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>25-06-2019</c:v>
+                  <c:v>25/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>24-06-2019</c:v>
+                  <c:v>24/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>21-06-2019</c:v>
+                  <c:v>21/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>20-06-2019</c:v>
+                  <c:v>20/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>19-06-2019</c:v>
+                  <c:v>19/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>18-06-2019</c:v>
+                  <c:v>18/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>17-06-2019</c:v>
+                  <c:v>17/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>14-06-2019</c:v>
+                  <c:v>14/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>13-06-2019</c:v>
+                  <c:v>13/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>12-06-2019</c:v>
+                  <c:v>12/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>11-06-2019</c:v>
+                  <c:v>11/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10-06-2019</c:v>
+                  <c:v>10/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>07-06-2019</c:v>
+                  <c:v>07/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>06-06-2019</c:v>
+                  <c:v>06/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>05-06-2019</c:v>
+                  <c:v>05/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>04-06-2019</c:v>
+                  <c:v>04/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>03-06-2019</c:v>
+                  <c:v>03/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>31-05-2019</c:v>
+                  <c:v>31/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>30-05-2019</c:v>
+                  <c:v>30/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>29-05-2019</c:v>
+                  <c:v>29/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>28-05-2019</c:v>
+                  <c:v>28/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>24-05-2019</c:v>
+                  <c:v>24/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>23-05-2019</c:v>
+                  <c:v>23/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>22-05-2019</c:v>
+                  <c:v>22/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>21-05-2019</c:v>
+                  <c:v>21/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>20-05-2019</c:v>
+                  <c:v>20/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>17-05-2019</c:v>
+                  <c:v>17/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>16-05-2019</c:v>
+                  <c:v>16/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>15-05-2019</c:v>
+                  <c:v>15/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>14-05-2019</c:v>
+                  <c:v>14/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>13-05-2019</c:v>
+                  <c:v>13/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10-05-2019</c:v>
+                  <c:v>10/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>09-05-2019</c:v>
+                  <c:v>09/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>08-05-2019</c:v>
+                  <c:v>08/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>07-05-2019</c:v>
+                  <c:v>07/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>03-05-2019</c:v>
+                  <c:v>03/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>02-05-2019</c:v>
+                  <c:v>02/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>01-05-2019</c:v>
+                  <c:v>01/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>30-04-2019</c:v>
+                  <c:v>30/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>29-04-2019</c:v>
+                  <c:v>29/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>26-04-2019</c:v>
+                  <c:v>26/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>25-04-2019</c:v>
+                  <c:v>25/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>24-04-2019</c:v>
+                  <c:v>24/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>23-04-2019</c:v>
+                  <c:v>23/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>18-04-2019</c:v>
+                  <c:v>18/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>17-04-2019</c:v>
+                  <c:v>17/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>16-04-2019</c:v>
+                  <c:v>16/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>15-04-2019</c:v>
+                  <c:v>15/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>12-04-2019</c:v>
+                  <c:v>12/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>11-04-2019</c:v>
+                  <c:v>11/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>10-04-2019</c:v>
+                  <c:v>10/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>09-04-2019</c:v>
+                  <c:v>09/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>08-04-2019</c:v>
+                  <c:v>08/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>05-04-2019</c:v>
+                  <c:v>05/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>04-04-2019</c:v>
+                  <c:v>04/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>03-04-2019</c:v>
+                  <c:v>03/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>02-04-2019</c:v>
+                  <c:v>02/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>01-04-2019</c:v>
+                  <c:v>01/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>29-03-2019</c:v>
+                  <c:v>29/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>28-03-2019</c:v>
+                  <c:v>28/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>27-03-2019</c:v>
+                  <c:v>27/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>26-03-2019</c:v>
+                  <c:v>26/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>25-03-2019</c:v>
+                  <c:v>25/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>22-03-2019</c:v>
+                  <c:v>22/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>21-03-2019</c:v>
+                  <c:v>21/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>20-03-2019</c:v>
+                  <c:v>20/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>19-03-2019</c:v>
+                  <c:v>19/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>18-03-2019</c:v>
+                  <c:v>18/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>15-03-2019</c:v>
+                  <c:v>15/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>14-03-2019</c:v>
+                  <c:v>14/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>13-03-2019</c:v>
+                  <c:v>13/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>12-03-2019</c:v>
+                  <c:v>12/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11-03-2019</c:v>
+                  <c:v>11/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>08-03-2019</c:v>
+                  <c:v>08/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>07-03-2019</c:v>
+                  <c:v>07/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>06-03-2019</c:v>
+                  <c:v>06/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>05-03-2019</c:v>
+                  <c:v>05/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>04-03-2019</c:v>
+                  <c:v>04/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>01-03-2019</c:v>
+                  <c:v>01/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>28-02-2019</c:v>
+                  <c:v>28/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>27-02-2019</c:v>
+                  <c:v>27/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>26-02-2019</c:v>
+                  <c:v>26/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>25-02-2019</c:v>
+                  <c:v>25/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>22-02-2019</c:v>
+                  <c:v>22/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>21-02-2019</c:v>
+                  <c:v>21/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>20-02-2019</c:v>
+                  <c:v>20/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>19-02-2019</c:v>
+                  <c:v>19/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>18-02-2019</c:v>
+                  <c:v>18/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>15-02-2019</c:v>
+                  <c:v>15/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>14-02-2019</c:v>
+                  <c:v>14/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>13-02-2019</c:v>
+                  <c:v>13/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>12-02-2019</c:v>
+                  <c:v>12/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>11-02-2019</c:v>
+                  <c:v>11/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>08-02-2019</c:v>
+                  <c:v>08/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>07-02-2019</c:v>
+                  <c:v>07/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>06-02-2019</c:v>
+                  <c:v>06/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>05-02-2019</c:v>
+                  <c:v>05/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>04-02-2019</c:v>
+                  <c:v>04/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>01-02-2019</c:v>
+                  <c:v>01/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>31-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>29-01-2019</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -9798,10 +9723,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'oil.chart.data'!$B$2:$B$258</c:f>
+              <c:f>'oil.chart.data'!$B$2:$B$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>59.37</c:v>
                 </c:pt>
@@ -10554,24 +10479,6 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>62.05</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>62.26</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>62.4</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>61.45</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10630,778 +10537,769 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'oil.chart.data'!$A$2:$A$258</c:f>
+              <c:f>'oil.chart.data'!$A$2:$A$255</c:f>
               <c:strCache>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
-                  <c:v>29-01-2020</c:v>
+                  <c:v>29/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28-01-2020</c:v>
+                  <c:v>28/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27-01-2020</c:v>
+                  <c:v>27/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-01-2020</c:v>
+                  <c:v>24/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23-01-2020</c:v>
+                  <c:v>23/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22-01-2020</c:v>
+                  <c:v>22/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21-01-2020</c:v>
+                  <c:v>21/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20-01-2020</c:v>
+                  <c:v>20/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17-01-2020</c:v>
+                  <c:v>17/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16-01-2020</c:v>
+                  <c:v>16/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-01-2020</c:v>
+                  <c:v>15/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14-01-2020</c:v>
+                  <c:v>14/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13-01-2020</c:v>
+                  <c:v>13/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10-01-2020</c:v>
+                  <c:v>10/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>09-01-2020</c:v>
+                  <c:v>09/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>08-01-2020</c:v>
+                  <c:v>08/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>07-01-2020</c:v>
+                  <c:v>07/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>06-01-2020</c:v>
+                  <c:v>06/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>03-01-2020</c:v>
+                  <c:v>03/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>02-01-2020</c:v>
+                  <c:v>02/01/2020</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31-12-2019</c:v>
+                  <c:v>31/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30-12-2019</c:v>
+                  <c:v>30/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27-12-2019</c:v>
+                  <c:v>27/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24-12-2019</c:v>
+                  <c:v>24/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23-12-2019</c:v>
+                  <c:v>23/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20-12-2019</c:v>
+                  <c:v>20/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19-12-2019</c:v>
+                  <c:v>19/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18-12-2019</c:v>
+                  <c:v>18/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17-12-2019</c:v>
+                  <c:v>17/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16-12-2019</c:v>
+                  <c:v>16/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13-12-2019</c:v>
+                  <c:v>13/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12-12-2019</c:v>
+                  <c:v>12/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11-12-2019</c:v>
+                  <c:v>11/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10-12-2019</c:v>
+                  <c:v>10/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>09-12-2019</c:v>
+                  <c:v>09/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>06-12-2019</c:v>
+                  <c:v>06/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>05-12-2019</c:v>
+                  <c:v>05/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>04-12-2019</c:v>
+                  <c:v>04/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>03-12-2019</c:v>
+                  <c:v>03/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>02-12-2019</c:v>
+                  <c:v>02/12/2019</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29-11-2019</c:v>
+                  <c:v>29/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28-11-2019</c:v>
+                  <c:v>28/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27-11-2019</c:v>
+                  <c:v>27/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>26-11-2019</c:v>
+                  <c:v>26/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25-11-2019</c:v>
+                  <c:v>25/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>22-11-2019</c:v>
+                  <c:v>22/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21-11-2019</c:v>
+                  <c:v>21/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20-11-2019</c:v>
+                  <c:v>20/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19-11-2019</c:v>
+                  <c:v>19/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18-11-2019</c:v>
+                  <c:v>18/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15-11-2019</c:v>
+                  <c:v>15/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>14-11-2019</c:v>
+                  <c:v>14/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13-11-2019</c:v>
+                  <c:v>13/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12-11-2019</c:v>
+                  <c:v>12/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11-11-2019</c:v>
+                  <c:v>11/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>08-11-2019</c:v>
+                  <c:v>08/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>07-11-2019</c:v>
+                  <c:v>07/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>06-11-2019</c:v>
+                  <c:v>06/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>05-11-2019</c:v>
+                  <c:v>05/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>04-11-2019</c:v>
+                  <c:v>04/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>01-11-2019</c:v>
+                  <c:v>01/11/2019</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31-10-2019</c:v>
+                  <c:v>31/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30-10-2019</c:v>
+                  <c:v>30/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>29-10-2019</c:v>
+                  <c:v>29/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28-10-2019</c:v>
+                  <c:v>28/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25-10-2019</c:v>
+                  <c:v>25/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>24-10-2019</c:v>
+                  <c:v>24/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>23-10-2019</c:v>
+                  <c:v>23/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>22-10-2019</c:v>
+                  <c:v>22/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>21-10-2019</c:v>
+                  <c:v>21/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18-10-2019</c:v>
+                  <c:v>18/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>17-10-2019</c:v>
+                  <c:v>17/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16-10-2019</c:v>
+                  <c:v>16/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15-10-2019</c:v>
+                  <c:v>15/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>14-10-2019</c:v>
+                  <c:v>14/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11-10-2019</c:v>
+                  <c:v>11/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10-10-2019</c:v>
+                  <c:v>10/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>09-10-2019</c:v>
+                  <c:v>09/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>08-10-2019</c:v>
+                  <c:v>08/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>07-10-2019</c:v>
+                  <c:v>07/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>04-10-2019</c:v>
+                  <c:v>04/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>03-10-2019</c:v>
+                  <c:v>03/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>02-10-2019</c:v>
+                  <c:v>02/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>01-10-2019</c:v>
+                  <c:v>01/10/2019</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30-09-2019</c:v>
+                  <c:v>30/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>27-09-2019</c:v>
+                  <c:v>27/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26-09-2019</c:v>
+                  <c:v>26/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>25-09-2019</c:v>
+                  <c:v>25/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>24-09-2019</c:v>
+                  <c:v>24/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>23-09-2019</c:v>
+                  <c:v>23/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20-09-2019</c:v>
+                  <c:v>20/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19-09-2019</c:v>
+                  <c:v>19/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18-09-2019</c:v>
+                  <c:v>18/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17-09-2019</c:v>
+                  <c:v>17/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16-09-2019</c:v>
+                  <c:v>16/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>13-09-2019</c:v>
+                  <c:v>13/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>12-09-2019</c:v>
+                  <c:v>12/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>11-09-2019</c:v>
+                  <c:v>11/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>10-09-2019</c:v>
+                  <c:v>10/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>09-09-2019</c:v>
+                  <c:v>09/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>06-09-2019</c:v>
+                  <c:v>06/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>05-09-2019</c:v>
+                  <c:v>05/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>04-09-2019</c:v>
+                  <c:v>04/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>03-09-2019</c:v>
+                  <c:v>03/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>02-09-2019</c:v>
+                  <c:v>02/09/2019</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>30-08-2019</c:v>
+                  <c:v>30/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>29-08-2019</c:v>
+                  <c:v>29/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>28-08-2019</c:v>
+                  <c:v>28/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>27-08-2019</c:v>
+                  <c:v>27/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>23-08-2019</c:v>
+                  <c:v>23/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>22-08-2019</c:v>
+                  <c:v>22/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>21-08-2019</c:v>
+                  <c:v>21/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>20-08-2019</c:v>
+                  <c:v>20/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19-08-2019</c:v>
+                  <c:v>19/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>16-08-2019</c:v>
+                  <c:v>16/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>15-08-2019</c:v>
+                  <c:v>15/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>14-08-2019</c:v>
+                  <c:v>14/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13-08-2019</c:v>
+                  <c:v>13/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>12-08-2019</c:v>
+                  <c:v>12/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>09-08-2019</c:v>
+                  <c:v>09/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>08-08-2019</c:v>
+                  <c:v>08/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>07-08-2019</c:v>
+                  <c:v>07/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>06-08-2019</c:v>
+                  <c:v>06/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>05-08-2019</c:v>
+                  <c:v>05/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>02-08-2019</c:v>
+                  <c:v>02/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>01-08-2019</c:v>
+                  <c:v>01/08/2019</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>31-07-2019</c:v>
+                  <c:v>31/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>30-07-2019</c:v>
+                  <c:v>30/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>29-07-2019</c:v>
+                  <c:v>29/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>26-07-2019</c:v>
+                  <c:v>26/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>25-07-2019</c:v>
+                  <c:v>25/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>24-07-2019</c:v>
+                  <c:v>24/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>23-07-2019</c:v>
+                  <c:v>23/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>22-07-2019</c:v>
+                  <c:v>22/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>19-07-2019</c:v>
+                  <c:v>19/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>18-07-2019</c:v>
+                  <c:v>18/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>17-07-2019</c:v>
+                  <c:v>17/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>16-07-2019</c:v>
+                  <c:v>16/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>15-07-2019</c:v>
+                  <c:v>15/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>12-07-2019</c:v>
+                  <c:v>12/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>11-07-2019</c:v>
+                  <c:v>11/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>10-07-2019</c:v>
+                  <c:v>10/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>09-07-2019</c:v>
+                  <c:v>09/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>08-07-2019</c:v>
+                  <c:v>08/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>05-07-2019</c:v>
+                  <c:v>05/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>04-07-2019</c:v>
+                  <c:v>04/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>03-07-2019</c:v>
+                  <c:v>03/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>02-07-2019</c:v>
+                  <c:v>02/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>01-07-2019</c:v>
+                  <c:v>01/07/2019</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>28-06-2019</c:v>
+                  <c:v>28/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27-06-2019</c:v>
+                  <c:v>27/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>26-06-2019</c:v>
+                  <c:v>26/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>25-06-2019</c:v>
+                  <c:v>25/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>24-06-2019</c:v>
+                  <c:v>24/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>21-06-2019</c:v>
+                  <c:v>21/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>20-06-2019</c:v>
+                  <c:v>20/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>19-06-2019</c:v>
+                  <c:v>19/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>18-06-2019</c:v>
+                  <c:v>18/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>17-06-2019</c:v>
+                  <c:v>17/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>14-06-2019</c:v>
+                  <c:v>14/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>13-06-2019</c:v>
+                  <c:v>13/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>12-06-2019</c:v>
+                  <c:v>12/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>11-06-2019</c:v>
+                  <c:v>11/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10-06-2019</c:v>
+                  <c:v>10/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>07-06-2019</c:v>
+                  <c:v>07/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>06-06-2019</c:v>
+                  <c:v>06/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>05-06-2019</c:v>
+                  <c:v>05/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>04-06-2019</c:v>
+                  <c:v>04/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>03-06-2019</c:v>
+                  <c:v>03/06/2019</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>31-05-2019</c:v>
+                  <c:v>31/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>30-05-2019</c:v>
+                  <c:v>30/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>29-05-2019</c:v>
+                  <c:v>29/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>28-05-2019</c:v>
+                  <c:v>28/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>24-05-2019</c:v>
+                  <c:v>24/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>23-05-2019</c:v>
+                  <c:v>23/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>22-05-2019</c:v>
+                  <c:v>22/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>21-05-2019</c:v>
+                  <c:v>21/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>20-05-2019</c:v>
+                  <c:v>20/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>17-05-2019</c:v>
+                  <c:v>17/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>16-05-2019</c:v>
+                  <c:v>16/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>15-05-2019</c:v>
+                  <c:v>15/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>14-05-2019</c:v>
+                  <c:v>14/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>13-05-2019</c:v>
+                  <c:v>13/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10-05-2019</c:v>
+                  <c:v>10/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>09-05-2019</c:v>
+                  <c:v>09/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>08-05-2019</c:v>
+                  <c:v>08/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>07-05-2019</c:v>
+                  <c:v>07/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>03-05-2019</c:v>
+                  <c:v>03/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>02-05-2019</c:v>
+                  <c:v>02/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>01-05-2019</c:v>
+                  <c:v>01/05/2019</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>30-04-2019</c:v>
+                  <c:v>30/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>29-04-2019</c:v>
+                  <c:v>29/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>26-04-2019</c:v>
+                  <c:v>26/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>25-04-2019</c:v>
+                  <c:v>25/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>24-04-2019</c:v>
+                  <c:v>24/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>23-04-2019</c:v>
+                  <c:v>23/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>18-04-2019</c:v>
+                  <c:v>18/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>17-04-2019</c:v>
+                  <c:v>17/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>16-04-2019</c:v>
+                  <c:v>16/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>15-04-2019</c:v>
+                  <c:v>15/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>12-04-2019</c:v>
+                  <c:v>12/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>11-04-2019</c:v>
+                  <c:v>11/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>10-04-2019</c:v>
+                  <c:v>10/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>09-04-2019</c:v>
+                  <c:v>09/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>08-04-2019</c:v>
+                  <c:v>08/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>05-04-2019</c:v>
+                  <c:v>05/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>04-04-2019</c:v>
+                  <c:v>04/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>03-04-2019</c:v>
+                  <c:v>03/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>02-04-2019</c:v>
+                  <c:v>02/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>01-04-2019</c:v>
+                  <c:v>01/04/2019</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>29-03-2019</c:v>
+                  <c:v>29/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>28-03-2019</c:v>
+                  <c:v>28/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>27-03-2019</c:v>
+                  <c:v>27/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>26-03-2019</c:v>
+                  <c:v>26/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>25-03-2019</c:v>
+                  <c:v>25/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>22-03-2019</c:v>
+                  <c:v>22/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>21-03-2019</c:v>
+                  <c:v>21/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>20-03-2019</c:v>
+                  <c:v>20/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>19-03-2019</c:v>
+                  <c:v>19/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>18-03-2019</c:v>
+                  <c:v>18/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>15-03-2019</c:v>
+                  <c:v>15/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>14-03-2019</c:v>
+                  <c:v>14/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>13-03-2019</c:v>
+                  <c:v>13/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>12-03-2019</c:v>
+                  <c:v>12/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>11-03-2019</c:v>
+                  <c:v>11/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>08-03-2019</c:v>
+                  <c:v>08/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>07-03-2019</c:v>
+                  <c:v>07/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>06-03-2019</c:v>
+                  <c:v>06/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>05-03-2019</c:v>
+                  <c:v>05/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>04-03-2019</c:v>
+                  <c:v>04/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>01-03-2019</c:v>
+                  <c:v>01/03/2019</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>28-02-2019</c:v>
+                  <c:v>28/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>27-02-2019</c:v>
+                  <c:v>27/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>26-02-2019</c:v>
+                  <c:v>26/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>25-02-2019</c:v>
+                  <c:v>25/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>22-02-2019</c:v>
+                  <c:v>22/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>21-02-2019</c:v>
+                  <c:v>21/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>20-02-2019</c:v>
+                  <c:v>20/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>19-02-2019</c:v>
+                  <c:v>19/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>18-02-2019</c:v>
+                  <c:v>18/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>15-02-2019</c:v>
+                  <c:v>15/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>14-02-2019</c:v>
+                  <c:v>14/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>13-02-2019</c:v>
+                  <c:v>13/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>12-02-2019</c:v>
+                  <c:v>12/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>11-02-2019</c:v>
+                  <c:v>11/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>08-02-2019</c:v>
+                  <c:v>08/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>07-02-2019</c:v>
+                  <c:v>07/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>06-02-2019</c:v>
+                  <c:v>06/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>05-02-2019</c:v>
+                  <c:v>05/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>04-02-2019</c:v>
+                  <c:v>04/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>01-02-2019</c:v>
+                  <c:v>01/02/2019</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>31-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>30-01-2019</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>29-01-2019</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -11409,10 +11307,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'oil.chart.data'!$C$2:$C$258</c:f>
+              <c:f>'oil.chart.data'!$C$2:$C$255</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="257"/>
+                <c:ptCount val="254"/>
                 <c:pt idx="0">
                   <c:v>45.66</c:v>
                 </c:pt>
@@ -12165,24 +12063,6 @@
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>47.39</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>47.33</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>47.74</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>46.74</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12197,11 +12077,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="58992009"/>
-        <c:axId val="57152822"/>
+        <c:axId val="52385031"/>
+        <c:axId val="66238166"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58992009"/>
+        <c:axId val="52385031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12229,14 +12109,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57152822"/>
+        <c:crossAx val="66238166"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57152822"/>
+        <c:axId val="66238166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12271,7 +12151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58992009"/>
+        <c:crossAx val="52385031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12310,7 +12190,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -12322,9 +12202,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>40680</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>259</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -12338,8 +12218,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10731960" y="49012560"/>
-        <a:ext cx="5754960" cy="3234960"/>
+        <a:off x="10732320" y="48970800"/>
+        <a:ext cx="5754600" cy="3234600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12363,9 +12243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12374,7 +12254,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="29520" y="28800"/>
-        <a:ext cx="8314200" cy="4855320"/>
+        <a:ext cx="8313840" cy="4854960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12398,9 +12278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12409,7 +12289,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="360" y="360"/>
-        <a:ext cx="9157680" cy="5347800"/>
+        <a:ext cx="9157320" cy="5347440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12430,15 +12310,13 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="65.1328125" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="40.18359375" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="4" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="26.453125" collapsed="true" outlineLevel="0" bestFit="true"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -12768,7 +12646,7 @@
         <v>219</v>
       </c>
       <c r="C30" s="134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="31">
@@ -12779,7 +12657,7 @@
         <v>220</v>
       </c>
       <c r="C31" s="135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="32">
@@ -12790,7 +12668,7 @@
         <v>221</v>
       </c>
       <c r="C32" s="136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="33">
@@ -12801,7 +12679,7 @@
         <v>222</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="34">
@@ -12812,7 +12690,7 @@
         <v>223</v>
       </c>
       <c r="C34" s="138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="35">
@@ -12823,7 +12701,7 @@
         <v>224</v>
       </c>
       <c r="C35" s="139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="36">
@@ -12834,7 +12712,7 @@
         <v>225</v>
       </c>
       <c r="C36" s="140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="37">
@@ -12845,7 +12723,7 @@
         <v>226</v>
       </c>
       <c r="C37" s="141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="38">
@@ -12856,7 +12734,7 @@
         <v>227</v>
       </c>
       <c r="C38" s="142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="39">
@@ -12867,7 +12745,7 @@
         <v>228</v>
       </c>
       <c r="C39" s="143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="40">
@@ -12878,7 +12756,7 @@
         <v>229</v>
       </c>
       <c r="C40" s="144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="41">
@@ -12889,7 +12767,7 @@
         <v>230</v>
       </c>
       <c r="C41" s="145" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="42">
@@ -12900,7 +12778,7 @@
         <v>231</v>
       </c>
       <c r="C42" s="146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="43">
@@ -12911,7 +12789,7 @@
         <v>232</v>
       </c>
       <c r="C43" s="147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="44">
@@ -12922,7 +12800,7 @@
         <v>233</v>
       </c>
       <c r="C44" s="148" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="45">
@@ -12933,7 +12811,7 @@
         <v>234</v>
       </c>
       <c r="C45" s="149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="46">
@@ -12944,7 +12822,7 @@
         <v>235</v>
       </c>
       <c r="C46" s="150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="47">
@@ -12955,7 +12833,7 @@
         <v>236</v>
       </c>
       <c r="C47" s="151" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="48">
@@ -12966,7 +12844,7 @@
         <v>237</v>
       </c>
       <c r="C48" s="152" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="49">
@@ -12977,7 +12855,7 @@
         <v>238</v>
       </c>
       <c r="C49" s="153" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -12999,599 +12877,597 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="7.7109375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="12.58984375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="7.53125" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
     <col min="5" max="5" customWidth="true" hidden="false" style="0" width="7.7109375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="6" max="6" customWidth="true" hidden="false" style="0" width="12.58984375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="7" max="7" customWidth="true" hidden="false" style="0" width="7.53125" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="8" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="154" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B1" s="155" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C1" s="156" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E1" s="241" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F1" s="242" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G1" s="243" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="157" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B2" s="185" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C2" s="213" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E2" s="244" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F2" s="272" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G2" s="300" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3">
       <c r="A3" s="158" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B3" s="186" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C3" s="214" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E3" s="245" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F3" s="273" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G3" s="301" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="4">
       <c r="A4" s="159" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B4" s="187" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C4" s="215" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E4" s="246" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F4" s="274" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G4" s="302" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
       <c r="A5" s="160" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B5" s="188" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C5" s="216" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E5" s="247" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F5" s="275" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G5" s="303" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6">
       <c r="A6" s="161" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B6" s="189" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C6" s="217" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E6" s="248" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F6" s="276" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G6" s="304" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7">
       <c r="A7" s="162" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B7" s="190" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C7" s="218" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E7" s="249" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F7" s="277" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G7" s="305" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="8">
       <c r="A8" s="163" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B8" s="191" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C8" s="219" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E8" s="250" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F8" s="278" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G8" s="306" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9">
       <c r="A9" s="164" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B9" s="192" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C9" s="220" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E9" s="251" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F9" s="279" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G9" s="307" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="10">
       <c r="A10" s="165" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B10" s="193" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C10" s="221" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E10" s="252" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F10" s="280" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G10" s="308" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="11">
       <c r="A11" s="166" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B11" s="194" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C11" s="222" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E11" s="253" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F11" s="281" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G11" s="309" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12">
       <c r="A12" s="167" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B12" s="195" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C12" s="223" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E12" s="254" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F12" s="282" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G12" s="310" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="13">
       <c r="A13" s="168" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B13" s="196" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C13" s="224" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E13" s="255" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F13" s="283" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G13" s="311" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="14">
       <c r="A14" s="169" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B14" s="197" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="225" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="256" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="284" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="225" t="s">
-        <v>351</v>
-      </c>
-      <c r="E14" s="256" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="284" t="s">
-        <v>330</v>
-      </c>
       <c r="G14" s="312" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15">
       <c r="A15" s="170" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B15" s="198" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="226" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="257" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="285" t="s">
         <v>327</v>
       </c>
-      <c r="C15" s="226" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" s="257" t="s">
-        <v>299</v>
-      </c>
-      <c r="F15" s="285" t="s">
-        <v>331</v>
-      </c>
       <c r="G15" s="313" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16">
       <c r="A16" s="171" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B16" s="199" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C16" s="227" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E16" s="258" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F16" s="286" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G16" s="314" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="17">
       <c r="A17" s="172" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B17" s="200" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C17" s="228" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E17" s="259" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F17" s="287" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G17" s="315" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="18">
       <c r="A18" s="173" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B18" s="201" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C18" s="229" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E18" s="260" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F18" s="288" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G18" s="316" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="19">
       <c r="A19" s="174" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B19" s="202" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C19" s="230" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E19" s="261" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F19" s="289" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G19" s="317" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="20">
       <c r="A20" s="175" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B20" s="203" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C20" s="231" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E20" s="262" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F20" s="290" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G20" s="318" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="21">
       <c r="A21" s="176" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B21" s="204" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C21" s="232" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E21" s="263" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F21" s="291" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G21" s="319" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22">
       <c r="A22" s="177" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B22" s="205" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C22" s="233" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E22" s="264" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F22" s="292" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G22" s="320" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="23">
       <c r="A23" s="178" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B23" s="206" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C23" s="234" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E23" s="265" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F23" s="293" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G23" s="321" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="24">
       <c r="A24" s="179" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B24" s="207" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C24" s="235" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E24" s="266" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F24" s="294" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G24" s="322" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="25">
       <c r="A25" s="180" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B25" s="208" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C25" s="236" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E25" s="267" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F25" s="295" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G25" s="323" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26">
       <c r="A26" s="181" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B26" s="209" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C26" s="237" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E26" s="268" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F26" s="296" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G26" s="324" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="27">
       <c r="A27" s="182" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B27" s="210" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C27" s="238" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E27" s="269" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F27" s="297" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G27" s="325" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28">
       <c r="A28" s="183" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B28" s="211" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C28" s="239" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E28" s="270" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F28" s="298" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G28" s="326" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="29">
       <c r="A29" s="184" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B29" s="212" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C29" s="240" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E29" s="271" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F29" s="299" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G29" s="327" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -13612,27 +13488,26 @@
   </sheetPr>
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A245" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A253" activeCellId="0" pane="topLeft" sqref="A253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="7.45703125" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="1" max="1" customWidth="true" hidden="false" style="4" width="11.609375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="7.45703125" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="4" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="328" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B1" s="329" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C1" s="330" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
@@ -16396,36 +16271,36 @@
         <v>128.73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="253">
-      <c r="A253" s="6" t="n">
+    <row r="253">
+      <c r="A253" t="n" s="6">
         <v>43496.041666666664</v>
       </c>
-      <c r="B253" s="582" t="n">
+      <c r="B253" t="n" s="582">
         <v>119.65</v>
       </c>
-      <c r="C253" s="836" t="n">
+      <c r="C253" t="n" s="836">
         <v>128.72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="254">
-      <c r="A254" s="6" t="n">
+    <row r="254">
+      <c r="A254" t="n" s="6">
         <v>43495.041666666664</v>
       </c>
-      <c r="B254" s="583" t="n">
+      <c r="B254" t="n" s="583">
         <v>119.65</v>
       </c>
-      <c r="C254" s="837" t="n">
+      <c r="C254" t="n" s="837">
         <v>128.73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="255">
-      <c r="A255" s="6" t="n">
+    <row r="255">
+      <c r="A255" t="n" s="6">
         <v>43494.041666666664</v>
       </c>
-      <c r="B255" s="584" t="n">
+      <c r="B255" t="n" s="584">
         <v>119.82</v>
       </c>
-      <c r="C255" s="838" t="n">
+      <c r="C255" t="n" s="838">
         <v>128.81</v>
       </c>
     </row>
@@ -16447,27 +16322,26 @@
   </sheetPr>
   <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A:A"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A243" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A253" activeCellId="0" pane="topLeft" sqref="A253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <cols>
     <col min="3" max="3" customWidth="true" hidden="false" style="0" width="24.40625" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="1" max="1" customWidth="true" hidden="false" style="4" width="11.609375" collapsed="true" outlineLevel="0" bestFit="true"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="24.40625" collapsed="true" outlineLevel="0" bestFit="true"/>
-    <col min="4" max="1025" customWidth="true" hidden="false" style="0" width="8.53" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="839" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="840" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" s="841" t="s">
         <v>375</v>
-      </c>
-      <c r="B1" s="840" t="s">
-        <v>378</v>
-      </c>
-      <c r="C1" s="841" t="s">
-        <v>379</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
@@ -16475,10 +16349,10 @@
         <v>43859.041666666664</v>
       </c>
       <c r="B2" s="842" t="n">
-        <v>59.37</v>
+        <v>-10.0</v>
       </c>
       <c r="C2" s="1096" t="n">
-        <v>45.66</v>
+        <v>-11.0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3">
@@ -19231,36 +19105,36 @@
         <v>47.39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="253">
-      <c r="A253" s="6" t="n">
+    <row r="253">
+      <c r="A253" t="n" s="6">
         <v>43496.041666666664</v>
       </c>
-      <c r="B253" s="1093" t="n">
+      <c r="B253" t="n" s="1093">
         <v>62.26</v>
       </c>
-      <c r="C253" s="1347" t="n">
+      <c r="C253" t="n" s="1347">
         <v>47.33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="254">
-      <c r="A254" s="6" t="n">
+    <row r="254">
+      <c r="A254" t="n" s="6">
         <v>43495.041666666664</v>
       </c>
-      <c r="B254" s="1094" t="n">
+      <c r="B254" t="n" s="1094">
         <v>62.4</v>
       </c>
-      <c r="C254" s="1348" t="n">
+      <c r="C254" t="n" s="1348">
         <v>47.74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="255">
-      <c r="A255" s="6" t="n">
+    <row r="255">
+      <c r="A255" t="n" s="6">
         <v>43494.041666666664</v>
       </c>
-      <c r="B255" s="1095" t="n">
+      <c r="B255" t="n" s="1095">
         <v>61.45</v>
       </c>
-      <c r="C255" s="1349" t="n">
+      <c r="C255" t="n" s="1349">
         <v>46.74</v>
       </c>
     </row>
@@ -19284,13 +19158,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L28" activeCellId="1" pane="topLeft" sqref="A:A L28"/>
+      <selection activeCell="L28" activeCellId="0" pane="topLeft" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
-  <cols>
-    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -19310,14 +19181,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M28" activeCellId="1" pane="topLeft" sqref="A:A M28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="M28" activeCellId="0" pane="topLeft" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
-  <cols>
-    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="9.14" collapsed="true" outlineLevel="0"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
   <sheetData/>
   <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
